--- a/artfynd/A 38313-2023.xlsx
+++ b/artfynd/A 38313-2023.xlsx
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>675653.5604910795</v>
+        <v>675654</v>
       </c>
       <c r="R2" t="n">
-        <v>7242091.058611481</v>
+        <v>7242091</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
